--- a/dataset/client.xlsx
+++ b/dataset/client.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B73CA9-EFE0-41E8-8360-9167BDA6B3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E235F7B3-C8DD-4838-82E3-8C2478A793FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="14">
   <si>
     <t>Connaissez Salomon avant d'acheter</t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,6 +756,44 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
